--- a/app/data/products.xlsx
+++ b/app/data/products.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v.babenko\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Вариант1" sheetId="1" r:id="rId1"/>
     <sheet name="Вариант2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr fullPrecision="1" calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18" count="38">
   <si>
     <t>Товар</t>
   </si>
@@ -73,13 +68,19 @@
   </si>
   <si>
     <t>Сума</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>	</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,16 +89,67 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2B579A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF2B579A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E7E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,19 +157,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF2B579A"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF2B579A"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ConditionalFormatStyle" xfId="1"/>
+    <cellStyle name="HeaderStyle" xfId="2"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
+  <dxfs xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
+  <tableStyles xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
@@ -390,228 +461,497 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView view="normal" tabSelected="1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="27.85546875" customWidth="1"/>
+    <col min="2" max="5" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>300</v>
       </c>
-      <c r="D2">
-        <f>C2*B2</f>
+      <c r="E2">
+        <f ca="1">D2*C2</f>
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>50</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D13" si="0">C3*B3</f>
+      <c r="E3">
+        <f ca="1">D3*C3</f>
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>100</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
+      <c r="E4">
+        <f ca="1">D4*C4</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>15</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>600</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
+      <c r="E5">
+        <f ca="1">D5*C5</f>
         <v>9000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>20</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>750</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
+      <c r="E6">
+        <f ca="1">D6*C6</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>50</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1500</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
+      <c r="E7">
+        <f ca="1">D7*C7</f>
         <v>75000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>10</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>250</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
+      <c r="E8">
+        <f ca="1">D8*C8</f>
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>450</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
+      <c r="E9">
+        <f ca="1">D9*C9</f>
         <v>6750</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>50</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>2500</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
+      <c r="E10">
+        <f ca="1">D10*C10</f>
         <v>125000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>15</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>650</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
+      <c r="E11">
+        <f ca="1">D11*C11</f>
         <v>9750</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>15</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>720</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
+      <c r="E12">
+        <f ca="1">D12*C12</f>
         <v>10800</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>15</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>963</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
+      <c r="E13">
+        <f ca="1">D13*C13</f>
         <v>14445</v>
       </c>
     </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>300</v>
+      </c>
+      <c r="E14">
+        <f ca="1">D14*C14</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <f ca="1">D15*C15</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <f ca="1">D16*C16</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>600</v>
+      </c>
+      <c r="E17">
+        <f ca="1">D17*C17</f>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>750</v>
+      </c>
+      <c r="E18">
+        <f ca="1">D18*C18</f>
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>1500</v>
+      </c>
+      <c r="E19">
+        <f ca="1">D19*C19</f>
+        <v>76500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>250</v>
+      </c>
+      <c r="E20">
+        <f ca="1">D20*C20</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>450</v>
+      </c>
+      <c r="E21">
+        <f ca="1">D21*C21</f>
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
+  <extLst/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.66015625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -625,97 +965,97 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>300</v>
       </c>
       <c r="D2">
-        <f>C2*B2</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <f ca="1">C2*B2</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>50</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D9" si="0">C3*B3</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <f ca="1">C3*B3</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <f ca="1">C4*B4</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>600</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <f ca="1">C5*B5</f>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>750</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <f ca="1">C6*B6</f>
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>1500</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <f ca="1">C7*B7</f>
+        <v>76500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -726,11 +1066,11 @@
         <v>250</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f ca="1">C8*B8</f>
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -741,11 +1081,14 @@
         <v>450</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f ca="1">C9*B9</f>
         <v>6750</v>
       </c>
     </row>
+    <row r="10"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
+  <extLst/>
 </worksheet>
 </file>